--- a/intermedios/05_factores/02_calibracion/cv_id_calib_previo.xlsx
+++ b/intermedios/05_factores/02_calibracion/cv_id_calib_previo.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01_1_1_1</t>
+          <t>01_1_0_1</t>
         </is>
       </c>
       <c r="B2">
@@ -406,7 +406,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01_2_1_1</t>
+          <t>01_2_0_1</t>
         </is>
       </c>
       <c r="B3">
@@ -425,7 +425,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02_1_1_1</t>
+          <t>02_1_0_1</t>
         </is>
       </c>
       <c r="B4">
@@ -444,7 +444,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02_2_1_1</t>
+          <t>02_2_0_1</t>
         </is>
       </c>
       <c r="B5">
@@ -463,7 +463,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03_1_1_1</t>
+          <t>03_1_0_1</t>
         </is>
       </c>
       <c r="B6">
@@ -482,7 +482,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03_2_1_1</t>
+          <t>03_2_0_1</t>
         </is>
       </c>
       <c r="B7">
@@ -501,7 +501,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04_1_1_1</t>
+          <t>04_1_0_1</t>
         </is>
       </c>
       <c r="B8">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04_2_1_1</t>
+          <t>04_2_0_1</t>
         </is>
       </c>
       <c r="B9">
@@ -539,7 +539,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05_1_1_1</t>
+          <t>05_1_0_1</t>
         </is>
       </c>
       <c r="B10">
@@ -558,7 +558,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05_2_1_1</t>
+          <t>05_2_0_1</t>
         </is>
       </c>
       <c r="B11">
@@ -577,7 +577,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06_1_1_1</t>
+          <t>06_1_0_1</t>
         </is>
       </c>
       <c r="B12">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06_2_1_1</t>
+          <t>06_2_0_1</t>
         </is>
       </c>
       <c r="B13">
@@ -615,7 +615,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07_1_1_1</t>
+          <t>07_1_0_1</t>
         </is>
       </c>
       <c r="B14">
@@ -634,7 +634,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>07_2_1_1</t>
+          <t>07_2_0_1</t>
         </is>
       </c>
       <c r="B15">
@@ -653,7 +653,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08_1_1_1</t>
+          <t>08_1_0_1</t>
         </is>
       </c>
       <c r="B16">
@@ -672,7 +672,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08_2_1_1</t>
+          <t>08_2_0_1</t>
         </is>
       </c>
       <c r="B17">
@@ -691,7 +691,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>09_1_1_1</t>
+          <t>09_1_0_1</t>
         </is>
       </c>
       <c r="B18">
@@ -710,7 +710,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>09_2_1_1</t>
+          <t>09_2_0_1</t>
         </is>
       </c>
       <c r="B19">
@@ -729,7 +729,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10_1_1_1</t>
+          <t>10_1_0_1</t>
         </is>
       </c>
       <c r="B20">
@@ -748,7 +748,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10_2_1_1</t>
+          <t>10_2_0_1</t>
         </is>
       </c>
       <c r="B21">
@@ -767,7 +767,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11_1_1_1</t>
+          <t>11_1_0_1</t>
         </is>
       </c>
       <c r="B22">
@@ -786,7 +786,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11_2_1_1</t>
+          <t>11_2_0_1</t>
         </is>
       </c>
       <c r="B23">
@@ -805,7 +805,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12_1_1_1</t>
+          <t>12_1_0_1</t>
         </is>
       </c>
       <c r="B24">
@@ -824,7 +824,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12_2_1_1</t>
+          <t>12_2_0_1</t>
         </is>
       </c>
       <c r="B25">
@@ -843,7 +843,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13_1_1_1</t>
+          <t>13_1_0_1</t>
         </is>
       </c>
       <c r="B26">
@@ -862,7 +862,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>13_2_1_1</t>
+          <t>13_2_0_1</t>
         </is>
       </c>
       <c r="B27">
@@ -881,7 +881,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14_1_1_1</t>
+          <t>14_1_0_1</t>
         </is>
       </c>
       <c r="B28">
@@ -900,7 +900,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14_2_1_1</t>
+          <t>14_2_0_1</t>
         </is>
       </c>
       <c r="B29">
@@ -919,7 +919,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15_1_1_1</t>
+          <t>15_1_0_1</t>
         </is>
       </c>
       <c r="B30">
@@ -938,7 +938,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>15_2_1_1</t>
+          <t>15_2_0_1</t>
         </is>
       </c>
       <c r="B31">
@@ -957,7 +957,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16_1_1_1</t>
+          <t>16_1_0_1</t>
         </is>
       </c>
       <c r="B32">
@@ -976,7 +976,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>16_2_1_1</t>
+          <t>16_2_0_1</t>
         </is>
       </c>
       <c r="B33">
@@ -995,7 +995,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>17_1_1_1</t>
+          <t>17_1_0_1</t>
         </is>
       </c>
       <c r="B34">
@@ -1014,7 +1014,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17_2_1_1</t>
+          <t>17_2_0_1</t>
         </is>
       </c>
       <c r="B35">
@@ -1033,7 +1033,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18_1_1_1</t>
+          <t>18_1_0_1</t>
         </is>
       </c>
       <c r="B36">
@@ -1052,7 +1052,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>18_2_1_1</t>
+          <t>18_2_0_1</t>
         </is>
       </c>
       <c r="B37">
@@ -1071,7 +1071,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19_1_1_1</t>
+          <t>19_1_0_1</t>
         </is>
       </c>
       <c r="B38">
@@ -1090,7 +1090,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19_2_1_1</t>
+          <t>19_2_0_1</t>
         </is>
       </c>
       <c r="B39">
@@ -1128,7 +1128,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>21_1_1_1</t>
+          <t>21_1_0_1</t>
         </is>
       </c>
       <c r="B41">
@@ -1147,7 +1147,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21_2_1_1</t>
+          <t>21_2_0_1</t>
         </is>
       </c>
       <c r="B42">
@@ -1166,7 +1166,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22_1_1_1</t>
+          <t>22_1_0_1</t>
         </is>
       </c>
       <c r="B43">
@@ -1185,7 +1185,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22_2_1_1</t>
+          <t>22_2_0_1</t>
         </is>
       </c>
       <c r="B44">
@@ -1204,7 +1204,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>23_1_1_1</t>
+          <t>23_1_0_1</t>
         </is>
       </c>
       <c r="B45">
@@ -1223,7 +1223,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>23_2_1_1</t>
+          <t>23_2_0_1</t>
         </is>
       </c>
       <c r="B46">
@@ -1242,7 +1242,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>24_1_1_1</t>
+          <t>24_1_0_1</t>
         </is>
       </c>
       <c r="B47">
@@ -1261,7 +1261,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>24_2_1_1</t>
+          <t>24_2_0_1</t>
         </is>
       </c>
       <c r="B48">

--- a/intermedios/05_factores/02_calibracion/cv_id_calib_previo.xlsx
+++ b/intermedios/05_factores/02_calibracion/cv_id_calib_previo.xlsx
@@ -391,13 +391,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>2651</v>
+        <v>2893</v>
       </c>
       <c r="C2">
-        <v>501611.7688962658</v>
+        <v>484752.6062056765</v>
       </c>
       <c r="D2">
-        <v>0.05165535330615512</v>
+        <v>0.05107328053021932</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -410,13 +410,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>2453</v>
+        <v>2716</v>
       </c>
       <c r="C3">
-        <v>345513.2094796608</v>
+        <v>349681.4115654042</v>
       </c>
       <c r="D3">
-        <v>0.04618141470717888</v>
+        <v>0.04271605201838055</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>901</v>
+        <v>1020</v>
       </c>
       <c r="C4">
-        <v>64685.8834658241</v>
+        <v>64822.64868340436</v>
       </c>
       <c r="D4">
-        <v>0.108186566043285</v>
+        <v>0.09821814194917325</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -448,13 +448,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>1738</v>
+        <v>1904</v>
       </c>
       <c r="C5">
-        <v>121775.3182915888</v>
+        <v>119490.4861696979</v>
       </c>
       <c r="D5">
-        <v>0.06244894783600551</v>
+        <v>0.05921775816410973</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>1243</v>
+        <v>1328</v>
       </c>
       <c r="C6">
-        <v>116804.5392365959</v>
+        <v>114654.0052614388</v>
       </c>
       <c r="D6">
-        <v>0.07125288683907675</v>
+        <v>0.06806224146750321</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>1289</v>
+        <v>1461</v>
       </c>
       <c r="C7">
-        <v>120549.2422188965</v>
+        <v>119948.8000532642</v>
       </c>
       <c r="D7">
-        <v>0.06994925032599426</v>
+        <v>0.06541104714755178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>1330</v>
+        <v>1490</v>
       </c>
       <c r="C8">
-        <v>121115.685412836</v>
+        <v>121414.1947981359</v>
       </c>
       <c r="D8">
-        <v>0.05483102769711318</v>
+        <v>0.05203012885410604</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>855</v>
+        <v>971</v>
       </c>
       <c r="C9">
-        <v>82620.22891116967</v>
+        <v>80849.85871230534</v>
       </c>
       <c r="D9">
-        <v>0.1161190437596485</v>
+        <v>0.1060919490823567</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>993</v>
+        <v>1090</v>
       </c>
       <c r="C10">
-        <v>174177.973196519</v>
+        <v>168989.6944355483</v>
       </c>
       <c r="D10">
-        <v>0.0909782205179762</v>
+        <v>0.08409108550578712</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>1703</v>
+        <v>1849</v>
       </c>
       <c r="C11">
-        <v>276045.017551036</v>
+        <v>271951.8142815581</v>
       </c>
       <c r="D11">
-        <v>0.05975228961409779</v>
+        <v>0.0561750261678614</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>1465</v>
+        <v>1589</v>
       </c>
       <c r="C12">
-        <v>230872.4685868764</v>
+        <v>224486.6326998488</v>
       </c>
       <c r="D12">
-        <v>0.06827950307847953</v>
+        <v>0.06589866419292041</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>1302</v>
+        <v>1446</v>
       </c>
       <c r="C13">
-        <v>191361.1760128518</v>
+        <v>189335.5943407937</v>
       </c>
       <c r="D13">
-        <v>0.06588586814992436</v>
+        <v>0.06093242598699342</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B14">
-        <v>4700</v>
+        <v>5178</v>
       </c>
       <c r="C14">
-        <v>607754.393642931</v>
+        <v>601972.0131407388</v>
       </c>
       <c r="D14">
-        <v>0.04057847612678014</v>
+        <v>0.03842111994263725</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="C15">
-        <v>108745.8095886878</v>
+        <v>105779.3180788436</v>
       </c>
       <c r="D15">
-        <v>0.1018713617349684</v>
+        <v>0.09587997712133643</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="B16">
-        <v>4735</v>
+        <v>5192</v>
       </c>
       <c r="C16">
-        <v>336417.9064341674</v>
+        <v>337787.4094905895</v>
       </c>
       <c r="D16">
-        <v>0.04760239163556396</v>
+        <v>0.04106381591054137</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="B17">
-        <v>1299</v>
+        <v>1463</v>
       </c>
       <c r="C17">
-        <v>246063.0117783634</v>
+        <v>240055.6427960272</v>
       </c>
       <c r="D17">
-        <v>0.0816516507487887</v>
+        <v>0.07721192289142804</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="B18">
-        <v>7588</v>
+        <v>8370</v>
       </c>
       <c r="C18">
-        <v>4402971.405423681</v>
+        <v>4327630.083756491</v>
       </c>
       <c r="D18">
-        <v>0.04921858965329368</v>
+        <v>0.04583666083859874</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="B19">
-        <v>857</v>
+        <v>935</v>
       </c>
       <c r="C19">
-        <v>455645.7751560257</v>
+        <v>457218.8233781891</v>
       </c>
       <c r="D19">
-        <v>0.0926408352112025</v>
+        <v>0.09149526151154309</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20">
-        <v>1740</v>
+        <v>1905</v>
       </c>
       <c r="C20">
-        <v>401216.8996631598</v>
+        <v>390722.5483398249</v>
       </c>
       <c r="D20">
-        <v>0.06285825478347748</v>
+        <v>0.0605163149215747</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="B21">
-        <v>721</v>
+        <v>795</v>
       </c>
       <c r="C21">
-        <v>141257.5579180724</v>
+        <v>139489.4682017903</v>
       </c>
       <c r="D21">
-        <v>0.07084550039310224</v>
+        <v>0.06997528482389198</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="B22">
-        <v>3661</v>
+        <v>4051</v>
       </c>
       <c r="C22">
-        <v>300837.5133527077</v>
+        <v>297817.1851338954</v>
       </c>
       <c r="D22">
-        <v>0.04109314095847131</v>
+        <v>0.03802584333892347</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -790,13 +790,13 @@
         </is>
       </c>
       <c r="B23">
-        <v>2071</v>
+        <v>2274</v>
       </c>
       <c r="C23">
-        <v>204415.5563019022</v>
+        <v>202746.4527200485</v>
       </c>
       <c r="D23">
-        <v>0.05883242879893189</v>
+        <v>0.05456860565372917</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -809,13 +809,13 @@
         </is>
       </c>
       <c r="B24">
-        <v>1882</v>
+        <v>2060</v>
       </c>
       <c r="C24">
-        <v>611871.0296075927</v>
+        <v>593797.2954347917</v>
       </c>
       <c r="D24">
-        <v>0.08386557298982961</v>
+        <v>0.08027313113051755</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B25">
-        <v>1060</v>
+        <v>1158</v>
       </c>
       <c r="C25">
-        <v>328125.3358851496</v>
+        <v>321706.1180582757</v>
       </c>
       <c r="D25">
-        <v>0.06101886466310062</v>
+        <v>0.05808893637323937</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="B26">
-        <v>5679</v>
+        <v>6259</v>
       </c>
       <c r="C26">
-        <v>1253879.645026668</v>
+        <v>1233900.623138698</v>
       </c>
       <c r="D26">
-        <v>0.04332114462549295</v>
+        <v>0.04081933145558803</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="B27">
-        <v>1572</v>
+        <v>1717</v>
       </c>
       <c r="C27">
-        <v>567972.4047918109</v>
+        <v>562884.0311109165</v>
       </c>
       <c r="D27">
-        <v>0.05325348696277565</v>
+        <v>0.04987032009493345</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -885,13 +885,13 @@
         </is>
       </c>
       <c r="B28">
-        <v>949</v>
+        <v>1049</v>
       </c>
       <c r="C28">
-        <v>63391.12338367764</v>
+        <v>62145.18237371802</v>
       </c>
       <c r="D28">
-        <v>0.06414765667014533</v>
+        <v>0.05987046851176909</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="B29">
-        <v>2037</v>
+        <v>2253</v>
       </c>
       <c r="C29">
-        <v>128508.102363238</v>
+        <v>126960.3575437438</v>
       </c>
       <c r="D29">
-        <v>0.04554530320210778</v>
+        <v>0.0420211019736952</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>777</v>
+        <v>846</v>
       </c>
       <c r="C30">
-        <v>49898.55626615774</v>
+        <v>50087.26915612583</v>
       </c>
       <c r="D30">
-        <v>0.1033203693293721</v>
+        <v>0.09517720331863276</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B31">
-        <v>1396</v>
+        <v>1527</v>
       </c>
       <c r="C31">
-        <v>87846.71170795646</v>
+        <v>85501.64643581721</v>
       </c>
       <c r="D31">
-        <v>0.09673184038439972</v>
+        <v>0.09109113113240777</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="B32">
-        <v>1219</v>
+        <v>1369</v>
       </c>
       <c r="C32">
-        <v>55433.4501785844</v>
+        <v>54812.078889912</v>
       </c>
       <c r="D32">
-        <v>0.06791061589457431</v>
+        <v>0.06149907462822209</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="B33">
-        <v>1337</v>
+        <v>1430</v>
       </c>
       <c r="C33">
-        <v>62425.38850849824</v>
+        <v>61655.57776657015</v>
       </c>
       <c r="D33">
-        <v>0.0722330062249977</v>
+        <v>0.06997704848303254</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="B34">
-        <v>5511</v>
+        <v>5991</v>
       </c>
       <c r="C34">
-        <v>3682541.571597242</v>
+        <v>3577083.98628631</v>
       </c>
       <c r="D34">
-        <v>0.06202950586568955</v>
+        <v>0.05801858795829028</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="B35">
-        <v>1565</v>
+        <v>1670</v>
       </c>
       <c r="C35">
-        <v>326273.3483396086</v>
+        <v>322059.1879411777</v>
       </c>
       <c r="D35">
-        <v>0.05751194122312948</v>
+        <v>0.0566558618465306</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="B36">
-        <v>2862</v>
+        <v>3157</v>
       </c>
       <c r="C36">
-        <v>305164.8019551326</v>
+        <v>300188.0672155925</v>
       </c>
       <c r="D36">
-        <v>0.05089173233100827</v>
+        <v>0.0474011235866123</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="B37">
-        <v>2883</v>
+        <v>3189</v>
       </c>
       <c r="C37">
-        <v>271069.2583329666</v>
+        <v>268362.5689572819</v>
       </c>
       <c r="D37">
-        <v>0.03953054971732464</v>
+        <v>0.03638621129765168</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="B38">
-        <v>1254</v>
+        <v>1350</v>
       </c>
       <c r="C38">
-        <v>49806.01684094493</v>
+        <v>48903.92545655529</v>
       </c>
       <c r="D38">
-        <v>0.07660731910883266</v>
+        <v>0.07279310295111549</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="B39">
-        <v>1457</v>
+        <v>1632</v>
       </c>
       <c r="C39">
-        <v>63302.19568136647</v>
+        <v>62525.15582302207</v>
       </c>
       <c r="D39">
-        <v>0.06938603267451551</v>
+        <v>0.06580909555765861</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         </is>
       </c>
       <c r="B40">
-        <v>2053</v>
+        <v>2244</v>
       </c>
       <c r="C40">
-        <v>29258.4260074452</v>
+        <v>27981.26529241213</v>
       </c>
       <c r="D40">
-        <v>0.07039605142734438</v>
+        <v>0.06884334213384224</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B41">
-        <v>913</v>
+        <v>1005</v>
       </c>
       <c r="C41">
-        <v>106048.6759589166</v>
+        <v>103288.6742315017</v>
       </c>
       <c r="D41">
-        <v>0.1222094972510237</v>
+        <v>0.1149704275411177</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="B42">
-        <v>1055</v>
+        <v>1154</v>
       </c>
       <c r="C42">
-        <v>131327.5858847176</v>
+        <v>127772.8330019714</v>
       </c>
       <c r="D42">
-        <v>0.09273752578884328</v>
+        <v>0.08739685026785848</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         </is>
       </c>
       <c r="B43">
-        <v>919</v>
+        <v>1033</v>
       </c>
       <c r="C43">
-        <v>86696.20328746369</v>
+        <v>86626.15573646242</v>
       </c>
       <c r="D43">
-        <v>0.09679188340441079</v>
+        <v>0.08708583515121412</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="B44">
-        <v>1089</v>
+        <v>1171</v>
       </c>
       <c r="C44">
-        <v>105378.7198832567</v>
+        <v>103793.9133953698</v>
       </c>
       <c r="D44">
-        <v>0.06161221556650186</v>
+        <v>0.06130221885299957</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="B45">
-        <v>2956</v>
+        <v>3301</v>
       </c>
       <c r="C45">
-        <v>412426.2999591331</v>
+        <v>408204.357781113</v>
       </c>
       <c r="D45">
-        <v>0.04224874322233679</v>
+        <v>0.03922585871044956</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B46">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="C46">
-        <v>88453.0858066572</v>
+        <v>87559.89399686821</v>
       </c>
       <c r="D46">
-        <v>0.09467894569958765</v>
+        <v>0.08863491806341003</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B47">
-        <v>1867</v>
+        <v>2037</v>
       </c>
       <c r="C47">
-        <v>408916.0848118006</v>
+        <v>405989.2048055097</v>
       </c>
       <c r="D47">
-        <v>0.05233512930637718</v>
+        <v>0.04879014360055708</v>
       </c>
       <c r="E47">
         <v>0</v>
